--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_9_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_9_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.507803383260509e-07</v>
+        <v>0.007445307440328675</v>
       </c>
       <c r="I2" t="n">
-        <v>1.507803383260509e-07</v>
+        <v>0.007445307440328675</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>63.79646218350134</v>
+        <v>34.84543851657722</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.79042868259498, 88.8024956844077]</t>
+          <t>[9.559682795670042, 60.131194237484394]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.793248501584358e-06</v>
+        <v>0.007999541567619062</v>
       </c>
       <c r="O2" t="n">
-        <v>5.793248501584358e-06</v>
+        <v>0.007999541567619062</v>
       </c>
       <c r="P2" t="n">
-        <v>1.213868632918579</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.7861843477451931, 1.6415529180919641]</t>
+          <t>[0.672973801669885, 2.5849741353861955]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.213601765394429e-07</v>
+        <v>0.001295700348463269</v>
       </c>
       <c r="S2" t="n">
-        <v>8.213601765394429e-07</v>
+        <v>0.001295700348463269</v>
       </c>
       <c r="T2" t="n">
-        <v>57.99026036073627</v>
+        <v>60.25361881599026</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.49583125419403, 71.48468946727851]</t>
+          <t>[45.22273939370312, 75.2844982382774]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.911737600503784e-11</v>
+        <v>2.692059908326883e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>3.911737600503784e-11</v>
+        <v>2.692059908326883e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>19.46018018018045</v>
+        <v>17.87407407407432</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.81837837837862</v>
+        <v>14.20264264264284</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.10198198198227</v>
+        <v>21.5455055055058</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006682608355561559</v>
+        <v>0.01822275359122094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006682608355561559</v>
+        <v>0.01822275359122094</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.83687002296601</v>
+        <v>36.93357835851143</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.012265382392215, 80.6614746635398]</t>
+          <t>[4.2906647800868996, 69.57649193693595]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001291290363920394</v>
+        <v>0.02747210930424115</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001291290363920394</v>
+        <v>0.02747210930424115</v>
       </c>
       <c r="P3" t="n">
-        <v>1.754763464167272</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0377633390236563, 2.4717635893108882]</t>
+          <t>[-0.14465791998511612, 2.396289891927349]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.163831273109928e-05</v>
+        <v>0.08103996967428384</v>
       </c>
       <c r="S3" t="n">
-        <v>1.163831273109928e-05</v>
+        <v>0.08103996967428384</v>
       </c>
       <c r="T3" t="n">
-        <v>81.03491560726341</v>
+        <v>71.26833453916416</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[63.57988642280213, 98.4899447917247]</t>
+          <t>[53.49074293133708, 89.04592614699123]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.082512106151626e-12</v>
+        <v>2.687887690200341e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>4.082512106151626e-12</v>
+        <v>2.687887690200341e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>17.38378378378402</v>
+        <v>19.80640640640668</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.63135135135155</v>
+        <v>14.92726726726747</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.13621621621649</v>
+        <v>24.68554554554589</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002057693809066063</v>
+        <v>0.0004261584349132264</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002057693809066063</v>
+        <v>0.0004261584349132264</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>46.40695090046172</v>
+        <v>47.275793750324</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[14.911529454530552, 77.9023723463929]</t>
+          <t>[18.836867941354456, 75.71471955929354]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.004793024907508991</v>
+        <v>0.001651796124107818</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004793024907508991</v>
+        <v>0.001651796124107818</v>
       </c>
       <c r="P4" t="n">
-        <v>1.201289683354655</v>
+        <v>1.30192127986604</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 1.9686056067539628]</t>
+          <t>[0.6352369529781159, 1.9686056067539637]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.002873976138636047</v>
+        <v>0.000286967815912087</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002873976138636047</v>
+        <v>0.000286967815912087</v>
       </c>
       <c r="T4" t="n">
-        <v>57.45427403625094</v>
+        <v>54.69232870975982</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.91238719792531, 74.99616087457656]</t>
+          <t>[39.0222986924448, 70.36235872707485]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.04785645002903e-08</v>
+        <v>9.206604145717279e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>4.04785645002903e-08</v>
+        <v>9.206604145717279e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>19.50846846846874</v>
+        <v>19.13009009009036</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.56288288288312</v>
+        <v>16.56974974974998</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.45405405405436</v>
+        <v>21.69043043043073</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00125112814642514</v>
+        <v>0.0001393026006277776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00125112814642514</v>
+        <v>0.0001393026006277776</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.27903763458191</v>
+        <v>51.25566456310855</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[15.331561714476067, 81.22651355468776]</t>
+          <t>[21.54779721026395, 80.96353191595314]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.005010103670893384</v>
+        <v>0.001142430772846037</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005010103670893384</v>
+        <v>0.001142430772846037</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9748685912040393</v>
+        <v>1.025184389459732</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 1.6415529180919632]</t>
+          <t>[0.42139481039142357, 1.628973968528041]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.005094552087729465</v>
+        <v>0.001342371809438303</v>
       </c>
       <c r="S5" t="n">
-        <v>0.005094552087729465</v>
+        <v>0.001342371809438303</v>
       </c>
       <c r="T5" t="n">
-        <v>61.21472307848724</v>
+        <v>62.33028836894802</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.79805775387361, 78.63138840310087]</t>
+          <t>[46.67293234624644, 77.9876443916496]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.781483457591776e-09</v>
+        <v>3.246065638506934e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>7.781483457591776e-09</v>
+        <v>3.246065638506934e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>20.37765765765794</v>
+        <v>20.19287287287315</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.81837837837863</v>
+        <v>17.87407407407432</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.93693693693725</v>
+        <v>22.51167167167198</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004400620329462201</v>
+        <v>0.0002108185848478383</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004400620329462201</v>
+        <v>0.0002108185848478383</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.7728451842285</v>
+        <v>50.14808706060595</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[17.4755490660078, 68.0701413024492]</t>
+          <t>[22.682787822330212, 77.61338629888168]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001399451978516764</v>
+        <v>0.000625997030035963</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001399451978516764</v>
+        <v>0.000625997030035963</v>
       </c>
       <c r="P6" t="n">
-        <v>1.314500229429963</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 2.0063424554457328]</t>
+          <t>[0.7107106503616549, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.0001407307904610633</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0003980332039408285</v>
+        <v>0.0001407307904610633</v>
       </c>
       <c r="T6" t="n">
-        <v>57.06971673250437</v>
+        <v>64.15771277720145</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.85726203630064, 71.2821714287081]</t>
+          <t>[48.37814290570071, 79.9372826487022]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.571260981909518e-10</v>
+        <v>1.832121121481123e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>2.571260981909518e-10</v>
+        <v>1.832121121481123e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>19.07387387387414</v>
+        <v>18.8402402402405</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.41801801801825</v>
+        <v>16.27989989990013</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.72972972973003</v>
+        <v>21.40058058058088</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.12000000000033</v>
+        <v>24.13000000000033</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002517969677821807</v>
+        <v>0.003013510730262126</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002517969677821807</v>
+        <v>0.003013510730262126</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.13344853856384</v>
+        <v>38.45779374406717</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[11.718296704866447, 62.548600372261234]</t>
+          <t>[12.474918640172234, 64.4406688479621]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.005127620359669294</v>
+        <v>0.004621264171096096</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005127620359669294</v>
+        <v>0.004621264171096096</v>
       </c>
       <c r="P7" t="n">
-        <v>1.301921279866041</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 2.132131951084965]</t>
+          <t>[0.5849211547224247, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.002832014953078055</v>
+        <v>0.001544503290096699</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002832014953078055</v>
+        <v>0.001544503290096699</v>
       </c>
       <c r="T7" t="n">
-        <v>51.04343605130975</v>
+        <v>37.60303634370829</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[36.74170620821648, 65.34516589440301]</t>
+          <t>[22.53080670303111, 52.67526598438547]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.35928545986053e-09</v>
+        <v>8.466853261612783e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>5.35928545986053e-09</v>
+        <v>8.466853261612783e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>19.12216216216243</v>
+        <v>18.55039039039065</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.93513513513535</v>
+        <v>15.21711711711733</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.3091891891895</v>
+        <v>21.88366366366396</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.79000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001282018286656528</v>
+        <v>1.110844504081943e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001282018286656528</v>
+        <v>1.110844504081943e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>49.39738090608817</v>
+        <v>50.45669041524739</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[15.628807957303692, 83.16595385487265]</t>
+          <t>[25.09127687888421, 75.82210395161056]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.005079130124448161</v>
+        <v>0.0002286411538241495</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005079130124448161</v>
+        <v>0.0002286411538241495</v>
       </c>
       <c r="P8" t="n">
-        <v>0.761026448617347</v>
+        <v>0.6603948521059628</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.1320789704211922, 1.3899739268135018]</t>
+          <t>[0.16981581911296217, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01882455469666855</v>
+        <v>0.009455502149745332</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01882455469666855</v>
+        <v>0.009455502149745332</v>
       </c>
       <c r="T8" t="n">
-        <v>63.84384156207528</v>
+        <v>53.95821907594169</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.97314599404797, 81.7145371301026]</t>
+          <t>[40.74478903013253, 67.17164912175085]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.231984401277145e-09</v>
+        <v>1.626700996126829e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>5.231984401277145e-09</v>
+        <v>1.626700996126829e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>20.90852852852878</v>
+        <v>20.99423423423444</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.52714714714737</v>
+        <v>19.16252252252271</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.28990990991019</v>
+        <v>22.82594594594617</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.79000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03881048146951871</v>
+        <v>2.58302617583972e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03881048146951871</v>
+        <v>2.58302617583972e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>31.7362600040488</v>
+        <v>53.93515461421167</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.26955095565018183, 63.202969052447415]</t>
+          <t>[28.616033564430168, 79.25427566399317]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04815000904907052</v>
+        <v>9.337069441395229e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04815000904907052</v>
+        <v>9.337069441395229e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8868159442565782</v>
+        <v>0.6226580034141938</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.786184347745194, 2.5598162362583503]</t>
+          <t>[0.15723686954904004, 1.0880791372793475]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.2913833388351801</v>
+        <v>0.009873137367608198</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2913833388351801</v>
+        <v>0.009873137367608198</v>
       </c>
       <c r="T9" t="n">
-        <v>73.96240849550433</v>
+        <v>55.41138821466592</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[56.88384606801206, 91.0409709229966]</t>
+          <t>[42.34446219547229, 68.47831423385955]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.136801929315425e-11</v>
+        <v>5.701017435910671e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.136801929315425e-11</v>
+        <v>5.701017435910671e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>20.43225225225249</v>
+        <v>21.13513513513534</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.09777777777794</v>
+        <v>19.39735735735755</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.76672672672704</v>
+        <v>22.87291291291313</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.79000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>5.521474302216944e-06</v>
+        <v>0.1087888764827238</v>
       </c>
       <c r="I10" t="n">
-        <v>5.521474302216944e-06</v>
+        <v>0.1087888764827238</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>67.03518445386548</v>
+        <v>29.91857618402186</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[33.8591636010304, 100.21120530670056]</t>
+          <t>[-7.3639857159477025, 67.20113808399142]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0001876684603774326</v>
+        <v>0.1130235844132124</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001876684603774326</v>
+        <v>0.1130235844132124</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8239211964369613</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.35850006257180755, 1.289342330302115]</t>
+          <t>[-2.32081619454381, 3.918342789162044]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.000874691061247157</v>
+        <v>0.608583029557269</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000874691061247157</v>
+        <v>0.608583029557269</v>
       </c>
       <c r="T10" t="n">
-        <v>74.64925192184548</v>
+        <v>62.73956433834068</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[57.80446942470667, 91.49403441898428]</t>
+          <t>[43.011465678298464, 82.4676629983829]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.613909006437098e-11</v>
+        <v>7.798467027697598e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.613909006437098e-11</v>
+        <v>7.798467027697598e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>20.67039039039064</v>
+        <v>20.4775975975978</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.9081681681684</v>
+        <v>8.829789789789878</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.43261261261288</v>
+        <v>32.12540540540571</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.79000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007431058724803874</v>
+        <v>0.0004191859398923192</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007431058724803874</v>
+        <v>0.0004191859398923192</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>45.79029678133311</v>
+        <v>48.12999955436025</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[18.03289035060385, 73.54770321206237]</t>
+          <t>[17.69244925678217, 78.56754985193832]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001777946621617676</v>
+        <v>0.002630018641599507</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001777946621617676</v>
+        <v>0.002630018641599507</v>
       </c>
       <c r="P11" t="n">
-        <v>1.352237078121732</v>
+        <v>1.062921238151502</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.6478159025420389, 2.056658253701425]</t>
+          <t>[0.4339737599553466, 1.691868716347658]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0003525916903528437</v>
+        <v>0.00140607517553315</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0003525916903528437</v>
+        <v>0.00140607517553315</v>
       </c>
       <c r="T11" t="n">
-        <v>60.3149902450705</v>
+        <v>63.12679237043573</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.55318609043626, 76.07679439970474]</t>
+          <t>[47.31973394138508, 78.93385079948638]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.224530028717481e-10</v>
+        <v>2.979876345676757e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>9.224530028717481e-10</v>
+        <v>2.979876345676757e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>18.67003003003025</v>
+        <v>19.49129129129148</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.00288288288308</v>
+        <v>17.1429429429431</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.33717717717743</v>
+        <v>21.83963963963985</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.79000000000028</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0002366043906584236</v>
+        <v>8.796662047672044e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002366043906584236</v>
+        <v>8.796662047672044e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>45.14629196573347</v>
+        <v>53.99765674967724</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[17.58114274133915, 72.71144119012779]</t>
+          <t>[27.90395983318595, 80.09135366616853]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001903925086365721</v>
+        <v>0.0001377746041228978</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001903925086365721</v>
+        <v>0.0001377746041228978</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7861843477451931</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.2327105669325764, 1.3396581285578097]</t>
+          <t>[0.5723422051585008, 1.6038160694001942]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.006385395026692331</v>
+        <v>0.0001064666480921073</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006385395026692331</v>
+        <v>0.0001064666480921073</v>
       </c>
       <c r="T12" t="n">
-        <v>59.75168792077999</v>
+        <v>56.96799453066256</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.46092623214422, 74.04244960941577]</t>
+          <t>[43.12961551430105, 70.80637354702407]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.469669410260394e-11</v>
+        <v>1.303228636118092e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>8.469669410260394e-11</v>
+        <v>1.303228636118092e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>20.81327327327352</v>
+        <v>19.39735735735755</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.71765765765788</v>
+        <v>17.47171171171189</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.90888888888916</v>
+        <v>21.32300300300321</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_9_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_9_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007445307440328675</v>
+        <v>0.04016287965256649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007445307440328675</v>
+        <v>0.04016287965256649</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>34.84543851657722</v>
+        <v>33.21197388117264</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[9.559682795670042, 60.131194237484394]</t>
+          <t>[2.1132526377956395, 64.31069512454964]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.007999541567619062</v>
+        <v>0.03688530414742242</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007999541567619062</v>
+        <v>0.03688530414742242</v>
       </c>
       <c r="P2" t="n">
         <v>1.62897396852804</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 2.5849741353861955]</t>
+          <t>[0.3459211130078854, 2.912026824048195]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.001295700348463269</v>
+        <v>0.01399613076848616</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001295700348463269</v>
+        <v>0.01399613076848616</v>
       </c>
       <c r="T2" t="n">
-        <v>60.25361881599026</v>
+        <v>67.48495375949042</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.22273939370312, 75.2844982382774]</t>
+          <t>[49.363411336947024, 85.60649618203382]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.692059908326883e-10</v>
+        <v>1.855736675437925e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.692059908326883e-10</v>
+        <v>1.855736675437925e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>17.87407407407432</v>
+        <v>18.05185185185213</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.20264264264284</v>
+        <v>13.0753953953956</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.5455055055058</v>
+        <v>23.02830830830866</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01822275359122094</v>
+        <v>0.0005123517925674781</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01822275359122094</v>
+        <v>0.0005123517925674781</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>36.93357835851143</v>
+        <v>48.04491451803742</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[4.2906647800868996, 69.57649193693595]</t>
+          <t>[18.719726178946118, 77.37010285712873]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.02747210930424115</v>
+        <v>0.001897937659589566</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02747210930424115</v>
+        <v>0.001897937659589566</v>
       </c>
       <c r="P3" t="n">
-        <v>1.125815985971117</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-0.14465791998511612, 2.396289891927349]</t>
+          <t>[0.5849211547224229, 1.9686056067539646]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.08103996967428384</v>
+        <v>0.0005558270426311296</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08103996967428384</v>
+        <v>0.0005558270426311296</v>
       </c>
       <c r="T3" t="n">
-        <v>71.26833453916416</v>
+        <v>59.83610346138918</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[53.49074293133708, 89.04592614699123]</t>
+          <t>[43.63806833313453, 76.03413858964383]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.687887690200341e-10</v>
+        <v>2.277366295544425e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.687887690200341e-10</v>
+        <v>2.277366295544425e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>19.80640640640668</v>
+        <v>19.41793793793823</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.92726726726747</v>
+        <v>16.73455455455481</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.68554554554589</v>
+        <v>22.10132132132166</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004261584349132264</v>
+        <v>0.000441216489857843</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004261584349132264</v>
+        <v>0.000441216489857843</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.275793750324</v>
+        <v>47.61076271339363</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[18.836867941354456, 75.71471955929354]</t>
+          <t>[20.519855565238203, 74.70166986154905]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001651796124107818</v>
+        <v>0.0009442470780360868</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001651796124107818</v>
+        <v>0.0009442470780360868</v>
       </c>
       <c r="P4" t="n">
-        <v>1.30192127986604</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.6352369529781159, 1.9686056067539637]</t>
+          <t>[0.748447499053424, 2.1572898502128117]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.000286967815912087</v>
+        <v>0.0001439314604401165</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000286967815912087</v>
+        <v>0.0001439314604401165</v>
       </c>
       <c r="T4" t="n">
-        <v>54.69232870975982</v>
+        <v>63.7132358401993</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.0222986924448, 70.36235872707485]</t>
+          <t>[47.813249095396145, 79.61322258500246]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>9.206604145717279e-09</v>
+        <v>2.719957592489664e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>9.206604145717279e-09</v>
+        <v>2.719957592489664e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>19.13009009009036</v>
+        <v>18.73489489489518</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.56974974974998</v>
+        <v>16.00272272272296</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.69043043043073</v>
+        <v>21.46706706706739</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001393026006277776</v>
+        <v>0.0005446866621721114</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001393026006277776</v>
+        <v>0.0005446866621721114</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.25566456310855</v>
+        <v>46.26438342974607</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.54779721026395, 80.96353191595314]</t>
+          <t>[19.9764531549078, 72.55231370458434]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001142430772846037</v>
+        <v>0.0009304790637501004</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001142430772846037</v>
+        <v>0.0009304790637501004</v>
       </c>
       <c r="P5" t="n">
-        <v>1.025184389459732</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 1.628973968528041]</t>
+          <t>[0.7484474990534231, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001342371809438303</v>
+        <v>0.0001119920227083959</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001342371809438303</v>
+        <v>0.0001119920227083959</v>
       </c>
       <c r="T5" t="n">
-        <v>62.33028836894802</v>
+        <v>62.87100216237948</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.67293234624644, 77.9876443916496]</t>
+          <t>[47.18310807428159, 78.55889625047737]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.246065638506934e-10</v>
+        <v>2.711040281155874e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>3.246065638506934e-10</v>
+        <v>2.711040281155874e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>20.19287287287315</v>
+        <v>18.83247247247276</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.87407407407432</v>
+        <v>16.19787787787812</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.51167167167198</v>
+        <v>21.4670670670674</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002108185848478383</v>
+        <v>2.77445516705388e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002108185848478383</v>
+        <v>2.77445516705388e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.14808706060595</v>
+        <v>58.14259237770068</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[22.682787822330212, 77.61338629888168]</t>
+          <t>[28.789660615959832, 87.49552413944153]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.000625997030035963</v>
+        <v>0.0002409702497609967</v>
       </c>
       <c r="O6" t="n">
-        <v>0.000625997030035963</v>
+        <v>0.0002409702497609967</v>
       </c>
       <c r="P6" t="n">
-        <v>1.377394977249579</v>
+        <v>1.226447582482502</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.7107106503616549, 2.0440793041375027]</t>
+          <t>[0.6729738016698859, 1.7799213632951174]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0001407307904610633</v>
+        <v>5.36412206637582e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001407307904610633</v>
+        <v>5.36412206637582e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>64.15771277720145</v>
+        <v>59.78986400286781</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.37814290570071, 79.9372826487022]</t>
+          <t>[43.708133058686286, 75.87159494704933]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.832121121481123e-10</v>
+        <v>1.935201554559285e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.832121121481123e-10</v>
+        <v>1.935201554559285e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>18.8402402402405</v>
+        <v>19.61309309309339</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.27989989990013</v>
+        <v>17.46638638638665</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.40058058058088</v>
+        <v>21.75979979980013</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.13000000000033</v>
+        <v>24.37000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003013510730262126</v>
+        <v>0.002320900861731534</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003013510730262126</v>
+        <v>0.002320900861731534</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>38.45779374406717</v>
+        <v>47.42788401548682</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[12.474918640172234, 64.4406688479621]</t>
+          <t>[13.53821570960801, 81.31755232136564]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004621264171096096</v>
+        <v>0.007142012330966674</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004621264171096096</v>
+        <v>0.007142012330966674</v>
       </c>
       <c r="P7" t="n">
-        <v>1.452868674633118</v>
+        <v>1.088079137279347</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.5849211547224247, 2.320816194543811]</t>
+          <t>[0.3836579616996545, 1.7925003128590387]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.001544503290096699</v>
+        <v>0.003232608644557322</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001544503290096699</v>
+        <v>0.003232608644557322</v>
       </c>
       <c r="T7" t="n">
-        <v>37.60303634370829</v>
+        <v>67.88739479042161</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[22.53080670303111, 52.67526598438547]</t>
+          <t>[49.73129180690858, 86.04349777393463]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.466853261612783e-06</v>
+        <v>1.674341554291914e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>8.466853261612783e-06</v>
+        <v>1.674341554291914e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>18.55039039039065</v>
+        <v>20.14976976977008</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.21711711711733</v>
+        <v>17.41759759759787</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.88366366366396</v>
+        <v>22.88194194194229</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.46000000000023</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.110844504081943e-05</v>
+        <v>0.00215581206365878</v>
       </c>
       <c r="I8" t="n">
-        <v>1.110844504081943e-05</v>
+        <v>0.00215581206365878</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.45669041524739</v>
+        <v>49.96738468110536</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[25.09127687888421, 75.82210395161056]</t>
+          <t>[15.024496665643767, 84.91027269656695]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0002286411538241495</v>
+        <v>0.006067241846413829</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002286411538241495</v>
+        <v>0.006067241846413829</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6603948521059628</v>
+        <v>0.723289599925578</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.16981581911296217, 1.1509738850989635]</t>
+          <t>[0.0691842226015762, 1.3773949772495797]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.009455502149745332</v>
+        <v>0.03098509969718033</v>
       </c>
       <c r="S8" t="n">
-        <v>0.009455502149745332</v>
+        <v>0.03098509969718033</v>
       </c>
       <c r="T8" t="n">
-        <v>53.95821907594169</v>
+        <v>65.73485534471858</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.74478903013253, 67.17164912175085]</t>
+          <t>[46.82864649879589, 84.64106419064127]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.626700996126829e-10</v>
+        <v>1.00922123991154e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.626700996126829e-10</v>
+        <v>1.00922123991154e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>20.99423423423444</v>
+        <v>21.36112112112142</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.16252252252271</v>
+        <v>18.84804804804831</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.82594594594617</v>
+        <v>23.87419419419453</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.46000000000023</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.58302617583972e-06</v>
+        <v>0.0004838209592611387</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58302617583972e-06</v>
+        <v>0.0004838209592611387</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.93515461421167</v>
+        <v>42.66854036046452</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.616033564430168, 79.25427566399317]</t>
+          <t>[19.931428637909818, 65.40565208301922]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>9.337069441395229e-05</v>
+        <v>0.0004595562138192122</v>
       </c>
       <c r="O9" t="n">
-        <v>9.337069441395229e-05</v>
+        <v>0.0004595562138192122</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6226580034141938</v>
+        <v>1.515763422452732</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.15723686954904004, 1.0880791372793475]</t>
+          <t>[0.8113422468730382, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.009873137367608198</v>
+        <v>8.126571432054419e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009873137367608198</v>
+        <v>8.126571432054419e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>55.41138821466592</v>
+        <v>59.90815509250562</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.34446219547229, 68.47831423385955]</t>
+          <t>[45.625985532891164, 74.19032465212007]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.701017435910671e-11</v>
+        <v>7.742007035460574e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>5.701017435910671e-11</v>
+        <v>7.742007035460574e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>21.13513513513534</v>
+        <v>18.31643643643669</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.39735735735755</v>
+        <v>15.61005005005027</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.87291291291313</v>
+        <v>21.02282282282312</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.46000000000023</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1087888764827238</v>
+        <v>0.001634443758452009</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1087888764827238</v>
+        <v>0.001634443758452009</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>29.91857618402186</v>
+        <v>48.48489471544724</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-7.3639857159477025, 67.20113808399142]</t>
+          <t>[15.03311906124165, 81.93667036965283]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1130235844132124</v>
+        <v>0.005463263044136468</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1130235844132124</v>
+        <v>0.005463263044136468</v>
       </c>
       <c r="P10" t="n">
-        <v>0.798763297309117</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.32081619454381, 3.918342789162044]</t>
+          <t>[0.35850006257180755, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.608583029557269</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S10" t="n">
-        <v>0.608583029557269</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T10" t="n">
-        <v>62.73956433834068</v>
+        <v>67.57181537411046</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.011465678298464, 82.4676629983829]</t>
+          <t>[49.65164966433035, 85.49198108389056]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.798467027697598e-08</v>
+        <v>1.349724110255579e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>7.798467027697598e-08</v>
+        <v>1.349724110255579e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>20.4775975975978</v>
+        <v>20.00792792792821</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.829789789789878</v>
+        <v>17.25321321321345</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.12540540540571</v>
+        <v>22.76264264264296</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.46000000000023</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004191859398923192</v>
+        <v>1.252492198366983e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004191859398923192</v>
+        <v>1.252492198366983e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.12999955436025</v>
+        <v>57.88576528872225</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.69244925678217, 78.56754985193832]</t>
+          <t>[29.992431124701454, 85.77909945274305]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002630018641599507</v>
+        <v>0.000132714023423075</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002630018641599507</v>
+        <v>0.000132714023423075</v>
       </c>
       <c r="P11" t="n">
-        <v>1.062921238151502</v>
+        <v>1.176131784226809</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 1.691868716347658]</t>
+          <t>[0.6478159025420398, 1.7044476659115775]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.00140607517553315</v>
+        <v>5.016708485139354e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00140607517553315</v>
+        <v>5.016708485139354e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>63.12679237043573</v>
+        <v>78.25977587246264</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.31973394138508, 78.93385079948638]</t>
+          <t>[63.016834781602, 93.50271696332328]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.979876345676757e-10</v>
+        <v>1.800781745942004e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.979876345676757e-10</v>
+        <v>1.800781745942004e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>19.49129129129148</v>
+        <v>19.62130130130158</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.1429429429431</v>
+        <v>17.59151151151177</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.83963963963985</v>
+        <v>21.65109109109139</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.46000000000023</v>
+        <v>24.14000000000033</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.796662047672044e-06</v>
+        <v>5.110901141192059e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>8.796662047672044e-06</v>
+        <v>5.110901141192059e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.99765674967724</v>
+        <v>68.74580451232252</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[27.90395983318595, 80.09135366616853]</t>
+          <t>[38.532651467585026, 98.95895755706002]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001377746041228978</v>
+        <v>3.637419942137399e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001377746041228978</v>
+        <v>3.637419942137399e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.088079137279347</v>
+        <v>0.7736053981812701</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 1.6038160694001942]</t>
+          <t>[0.3710790121357306, 1.1761317842268095]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0001064666480921073</v>
+        <v>0.0003477568156891042</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001064666480921073</v>
+        <v>0.0003477568156891042</v>
       </c>
       <c r="T12" t="n">
-        <v>56.96799453066256</v>
+        <v>71.89447629601337</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[43.12961551430105, 70.80637354702407]</t>
+          <t>[56.555273628805296, 87.23367896322144]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.303228636118092e-10</v>
+        <v>3.063327369545732e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.303228636118092e-10</v>
+        <v>3.063327369545732e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>19.39735735735755</v>
+        <v>21.1678078078081</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.47171171171189</v>
+        <v>19.62130130130157</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.32300300300321</v>
+        <v>22.71431431431463</v>
       </c>
     </row>
   </sheetData>
